--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_JS.xlsx
@@ -87,84 +87,6 @@
     <t>showPopup with Message and title , icon and buttons, with callback for buttton</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0680
-};
-validate4
-{
-validate_Screenshot=VT200_0680
-};
-validate5
-{
-validate_Screenshot=VT200_0680_afterhide
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0680_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0680);
-validate4;
-wait(10);
-TakeScreenshot(VT200_0680_afterhide);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0682_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-TakeScreenshot(VT200_0682);
-validate4;
-ClickNotificationOption(yes);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0682
-};
-validate4
-{
-validate_Screenshot=VT200_0682
-};
-validate5
-{
-validate_Result=
-};
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">wait(5);
 validate1;
 link_Click(notification_test_link);
@@ -199,27 +121,198 @@
 </t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0679
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0679_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+CheckUITextContains(This_is_status_message);
+ClickUIButtonText(click_to_hide);</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0681_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(This_is_a_pop_up_for_hide);
+wait(10);
+TakeScreenshot(VT200_0681_afterhide);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0681
+};
+validate5
+{
+validate_Screenshot=VT200_0681_afterhide
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0683
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0683_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+CheckUITextContains(This_is_a_status_message);
+ClickUIButtonText(Confirm);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0684
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0687
+};
+validate4
+{
+validate_Result="button_title":"yes"
+validate_Result="button_id":"accept"
+validate_Result="button_index":"0"
+};
+</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0687_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+CheckUITextContains(Test_Message);
+ClickUIButtonText(yes);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0682_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+CheckUITextContains(This_is_a_pop_up_for_callback);
+ClickUIButtonText(No);
+validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0682
+};
+validate4
+{
+validate_Result="button_title":"No"
+validate_Result="button_id":"No"
+validate_Result="button_index":"1"
+};
+</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(notification_test_link);
 validate2;
 SelectTestToRun(VT200_0684_string);
 ClickRunTest(runtest_top_xpath);
-wait(3);
+wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0684);
-validate4;
-launch_App_Device(com.rhomobile.compliancejs);
-wait(5);
-TakeScreenshot(VT200_0684_popupmesg);
-validate5;
-ClickNotificationOption(ok);
-validate6;</t>
-  </si>
-  <si>
-    <t>validate1
+SwipeNotificationAndTap(Displaying);
+CheckUITextContains(Message_will_get_display_in_notification_bar_and_dialog_will_get_displayed_when_comes_to_foreground);
+ClickUIButtonText(ok);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -229,20 +322,13 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0684
+validate_Text_Exists=VT200-0685
 };
 validate4
 {
-validate_Screenshot=VT200_0684
-};
-validate5
-{
-validate_Screenshot=VT200_0684_popupmesg
-};
-validate6
-{
-validate_Screenshot=VT200_0684_popupclose
-};</t>
+validate_PageTitle=Notification JS Test
+};
+</t>
   </si>
   <si>
     <t>wait(5);
@@ -251,19 +337,15 @@
 validate2;
 SelectTestToRun(VT200_0685_string);
 ClickRunTest(runtest_top_xpath);
-wait(3);
+wait(2);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-Dragdownpage();
-TakeScreenshot(VT200_0685_notificationbar);
-validate4;
-ClickNotification(TestMessage);
-wait(5);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
+SwipeNotificationAndTap(Compliance);
+validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -273,16 +355,13 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0685
+validate_Text_Exists=VT200-0686
 };
 validate4
 {
-validate_Screenshot=VT200_0685_notificationbar
-};
-validate5
-{
-validate_Screenshot=VT200_0685_foreground
-};</t>
+validate_PageTitle=Notification JS Test
+};
+</t>
   </si>
   <si>
     <t>wait(5);
@@ -295,126 +374,8 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-Dragdownpage();
-validate4;
-ClickNotification(TestMessage);
-wait(5);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0686
-};
-validate4
-{
-validate_Screenshot=VT200_0686_notificationbar
-};
-validate5
-{
-validate_Screenshot=VT200_0686_foreground
-};
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0687_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0687);
-validate4;
-ClickNotificationOption(ok);
-validate5;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0687
-};
-validate4
-{
-validate_Screenshot=VT200_0687
-};
-validate5
-{
-validate_Screenshot=VT200_0687_toastmesg
-};
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0679
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0535
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0684_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwipeNotificationAndTap(Displaying);
-CheckUITextContains(Message_will_get_display_in_notification_bar_and_dialog_will_get_displayed_when_comes_to_foreground);
-ClickUIButtonText(ok);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0679_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-CheckUITextContains(This_is_status_message);
-ClickUIButtonText(click_to_hide);</t>
+SwipeNotificationAndTap(Compliance);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -897,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,7 +868,7 @@
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="49" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -965,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>11</v>
@@ -976,7 +937,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="255.75" thickBot="1">
+    <row r="3" spans="1:11" ht="204.75" thickBot="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -984,7 +945,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -992,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1019,16 +982,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="306.75" thickBot="1">
+    <row r="5" spans="1:11" ht="192" thickBot="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1046,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="255.75" thickBot="1">
+    <row r="6" spans="1:11" ht="217.5" thickBot="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1073,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="268.5" thickBot="1">
+    <row r="7" spans="1:11" ht="217.5" thickBot="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1100,16 +1063,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="268.5" thickBot="1">
+    <row r="8" spans="1:11" ht="255.75" thickBot="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1127,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1144,9 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
@@ -1154,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="268.5" thickBot="1">
+    <row r="10" spans="1:11" ht="243" thickBot="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1181,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_JS.xlsx
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -867,10 +867,10 @@
     <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="49" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="65.25" thickBot="1">
@@ -1167,9 +1167,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Notification_JS.xlsx
@@ -147,40 +147,6 @@
 ClickUIButtonText(click_to_hide);</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0681_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(This_is_a_pop_up_for_hide);
-wait(10);
-TakeScreenshot(VT200_0681_afterhide);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0681
-};
-validate5
-{
-validate_Screenshot=VT200_0681_afterhide
-};</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -376,6 +342,35 @@
 wait(5);
 SwipeNotificationAndTap(Compliance);
 validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0681_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(This_is_a_pop_up_for_hide);
+wait(10);
+CheckUITextContains(hidepopup);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0681
+};</t>
   </si>
 </sst>
 </file>
@@ -859,7 +854,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,7 +932,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="204.75" thickBot="1">
+    <row r="3" spans="1:11" ht="166.5" thickBot="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -955,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -982,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1009,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1036,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1063,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1090,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1142,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
